--- a/dataGen/empiricalData.xlsx
+++ b/dataGen/empiricalData.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="totalRuntimes" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="totalRuntimeAverage" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="arrayFunctions" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="adjMatFunctions" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="adjListFunctions" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="adjListFunctions" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="adjMatFunctions" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -176,6 +176,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -196,6 +197,7 @@
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,24 +242,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -394,7 +392,7 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.25"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="11.53"/>
   </cols>
@@ -441,7 +439,7 @@
       <c r="F2" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="1" t="n">
         <v>0.0005</v>
       </c>
     </row>
@@ -464,7 +462,7 @@
       <c r="F3" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="1" t="n">
         <v>0.0005</v>
       </c>
     </row>
@@ -487,7 +485,7 @@
       <c r="F4" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.0005</v>
       </c>
     </row>
@@ -510,7 +508,7 @@
       <c r="F5" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="1" t="n">
         <v>0.0005</v>
       </c>
     </row>
@@ -533,7 +531,7 @@
       <c r="F6" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="1" t="n">
         <v>0.0005</v>
       </c>
     </row>
@@ -556,7 +554,7 @@
       <c r="F7" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="1" t="n">
         <v>0.0008</v>
       </c>
     </row>
@@ -579,7 +577,7 @@
       <c r="F8" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="1" t="n">
         <v>0.0006</v>
       </c>
     </row>
@@ -602,7 +600,7 @@
       <c r="F9" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="1" t="n">
         <v>0.0006</v>
       </c>
     </row>
@@ -625,7 +623,7 @@
       <c r="F10" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="1" t="n">
         <v>0.0006</v>
       </c>
     </row>
@@ -648,7 +646,7 @@
       <c r="F11" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="1" t="n">
         <v>0.0006</v>
       </c>
     </row>
@@ -898,10 +896,10 @@
       <c r="E22" s="1" t="n">
         <v>0.0129</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="1" t="n">
         <v>0.252</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="1" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -921,10 +919,10 @@
       <c r="E23" s="1" t="n">
         <v>0.013</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="1" t="n">
         <v>0.2554</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="1" t="n">
         <v>0.0246</v>
       </c>
     </row>
@@ -944,10 +942,10 @@
       <c r="E24" s="1" t="n">
         <v>0.0126</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="1" t="n">
         <v>0.2621</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="1" t="n">
         <v>0.0239</v>
       </c>
     </row>
@@ -967,10 +965,10 @@
       <c r="E25" s="1" t="n">
         <v>0.0122</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="1" t="n">
         <v>0.2521</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="1" t="n">
         <v>0.0238</v>
       </c>
     </row>
@@ -990,10 +988,10 @@
       <c r="E26" s="1" t="n">
         <v>0.0125</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="1" t="n">
         <v>0.2603</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="1" t="n">
         <v>0.0257</v>
       </c>
     </row>
@@ -1013,10 +1011,10 @@
       <c r="E27" s="1" t="n">
         <v>0.0126</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="1" t="n">
         <v>0.2542</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="1" t="n">
         <v>0.0243</v>
       </c>
     </row>
@@ -1036,10 +1034,10 @@
       <c r="E28" s="1" t="n">
         <v>0.0131</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="1" t="n">
         <v>0.259</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="1" t="n">
         <v>0.0242</v>
       </c>
     </row>
@@ -1059,10 +1057,10 @@
       <c r="E29" s="1" t="n">
         <v>0.0138</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="1" t="n">
         <v>0.2595</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="1" t="n">
         <v>0.0242</v>
       </c>
     </row>
@@ -1082,10 +1080,10 @@
       <c r="E30" s="1" t="n">
         <v>0.0123</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="1" t="n">
         <v>0.2593</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="1" t="n">
         <v>0.0261</v>
       </c>
     </row>
@@ -1105,7 +1103,7 @@
       <c r="E31" s="1" t="n">
         <v>0.0133</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="1" t="n">
         <v>0.2642</v>
       </c>
       <c r="G31" s="1" t="n">
@@ -1128,10 +1126,10 @@
       <c r="E32" s="1" t="n">
         <v>0.0135</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="1" t="n">
         <v>0.2378</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="1" t="n">
         <v>0.0229</v>
       </c>
     </row>
@@ -1151,10 +1149,10 @@
       <c r="E33" s="1" t="n">
         <v>0.0131</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="1" t="n">
         <v>0.2526</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="1" t="n">
         <v>0.0265</v>
       </c>
     </row>
@@ -1174,10 +1172,10 @@
       <c r="E34" s="1" t="n">
         <v>0.0127</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="1" t="n">
         <v>0.2433</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="1" t="n">
         <v>0.0235</v>
       </c>
     </row>
@@ -1197,10 +1195,10 @@
       <c r="E35" s="1" t="n">
         <v>0.0127</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="1" t="n">
         <v>0.2402</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="1" t="n">
         <v>0.0281</v>
       </c>
     </row>
@@ -1220,10 +1218,10 @@
       <c r="E36" s="1" t="n">
         <v>0.0131</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="1" t="n">
         <v>0.245</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="1" t="n">
         <v>0.0243</v>
       </c>
     </row>
@@ -1243,10 +1241,10 @@
       <c r="E37" s="1" t="n">
         <v>0.0133</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="1" t="n">
         <v>0.2428</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="1" t="n">
         <v>0.0239</v>
       </c>
     </row>
@@ -1266,10 +1264,10 @@
       <c r="E38" s="1" t="n">
         <v>0.0135</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="1" t="n">
         <v>0.245</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="1" t="n">
         <v>0.0244</v>
       </c>
     </row>
@@ -1289,10 +1287,10 @@
       <c r="E39" s="1" t="n">
         <v>0.0127</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="1" t="n">
         <v>0.2396</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="1" t="n">
         <v>0.0241</v>
       </c>
     </row>
@@ -1312,10 +1310,10 @@
       <c r="E40" s="1" t="n">
         <v>0.0127</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="1" t="n">
         <v>0.2429</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="1" t="n">
         <v>0.024</v>
       </c>
     </row>
@@ -1335,10 +1333,10 @@
       <c r="E41" s="1" t="n">
         <v>0.0127</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="1" t="n">
         <v>0.2466</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="1" t="n">
         <v>0.0242</v>
       </c>
     </row>
@@ -1358,10 +1356,10 @@
       <c r="E42" s="1" t="n">
         <v>0.0277</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="1" t="n">
         <v>0.9426</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="1" t="n">
         <v>0.0479</v>
       </c>
     </row>
@@ -1381,10 +1379,10 @@
       <c r="E43" s="1" t="n">
         <v>0.0276</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="1" t="n">
         <v>0.9715</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="1" t="n">
         <v>0.0533</v>
       </c>
     </row>
@@ -1404,10 +1402,10 @@
       <c r="E44" s="1" t="n">
         <v>0.0288</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="1" t="n">
         <v>0.9583</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="1" t="n">
         <v>0.0496</v>
       </c>
     </row>
@@ -1427,10 +1425,10 @@
       <c r="E45" s="1" t="n">
         <v>0.0291</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="1" t="n">
         <v>0.9543</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="1" t="n">
         <v>0.0511</v>
       </c>
     </row>
@@ -1450,10 +1448,10 @@
       <c r="E46" s="1" t="n">
         <v>0.0281</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="1" t="n">
         <v>0.9649</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="1" t="n">
         <v>0.0501</v>
       </c>
     </row>
@@ -1473,10 +1471,10 @@
       <c r="E47" s="1" t="n">
         <v>0.0271</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="1" t="n">
         <v>0.951</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="1" t="n">
         <v>0.0493</v>
       </c>
     </row>
@@ -1496,10 +1494,10 @@
       <c r="E48" s="1" t="n">
         <v>0.0288</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="1" t="n">
         <v>1.0137</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="1" t="n">
         <v>0.0495</v>
       </c>
     </row>
@@ -1519,10 +1517,10 @@
       <c r="E49" s="1" t="n">
         <v>0.028</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="1" t="n">
         <v>0.972</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="1" t="n">
         <v>0.0502</v>
       </c>
     </row>
@@ -1542,10 +1540,10 @@
       <c r="E50" s="1" t="n">
         <v>0.0286</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="1" t="n">
         <v>0.9796</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="1" t="n">
         <v>0.0493</v>
       </c>
     </row>
@@ -1568,7 +1566,7 @@
       <c r="F51" s="1" t="n">
         <v>0.9566</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="1" t="n">
         <v>0.0538</v>
       </c>
     </row>
@@ -1588,10 +1586,10 @@
       <c r="E52" s="1" t="n">
         <v>0.0603</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="1" t="n">
         <v>4.6412</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="1" t="n">
         <v>0.1089</v>
       </c>
     </row>
@@ -1611,10 +1609,10 @@
       <c r="E53" s="1" t="n">
         <v>0.0607</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="1" t="n">
         <v>4.6026</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="1" t="n">
         <v>0.1098</v>
       </c>
     </row>
@@ -1634,10 +1632,10 @@
       <c r="E54" s="1" t="n">
         <v>0.0645</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="1" t="n">
         <v>4.6393</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="1" t="n">
         <v>0.1091</v>
       </c>
     </row>
@@ -1657,10 +1655,10 @@
       <c r="E55" s="1" t="n">
         <v>0.0605</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" s="1" t="n">
         <v>4.6571</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="G55" s="1" t="n">
         <v>0.1159</v>
       </c>
     </row>
@@ -1680,10 +1678,10 @@
       <c r="E56" s="1" t="n">
         <v>0.0644</v>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="F56" s="1" t="n">
         <v>4.6258</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G56" s="1" t="n">
         <v>0.1115</v>
       </c>
     </row>
@@ -1703,10 +1701,10 @@
       <c r="E57" s="1" t="n">
         <v>0.0608</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="1" t="n">
         <v>4.5673</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="1" t="n">
         <v>0.1099</v>
       </c>
     </row>
@@ -1726,10 +1724,10 @@
       <c r="E58" s="1" t="n">
         <v>0.0618</v>
       </c>
-      <c r="F58" s="2" t="n">
+      <c r="F58" s="1" t="n">
         <v>4.6696</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="G58" s="1" t="n">
         <v>0.1122</v>
       </c>
     </row>
@@ -1749,10 +1747,10 @@
       <c r="E59" s="1" t="n">
         <v>0.0606</v>
       </c>
-      <c r="F59" s="2" t="n">
+      <c r="F59" s="1" t="n">
         <v>4.6327</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="G59" s="1" t="n">
         <v>0.1133</v>
       </c>
     </row>
@@ -1772,10 +1770,10 @@
       <c r="E60" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="1" t="n">
         <v>4.6333</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="1" t="n">
         <v>0.1148</v>
       </c>
     </row>
@@ -1795,10 +1793,10 @@
       <c r="E61" s="1" t="n">
         <v>0.0609</v>
       </c>
-      <c r="F61" s="2" t="n">
+      <c r="F61" s="1" t="n">
         <v>4.6922</v>
       </c>
-      <c r="G61" s="2" t="n">
+      <c r="G61" s="1" t="n">
         <v>0.1179</v>
       </c>
     </row>
@@ -1818,10 +1816,10 @@
       <c r="E62" s="1" t="n">
         <v>0.1087</v>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" s="1" t="n">
         <v>14.215</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="1" t="n">
         <v>0.2091</v>
       </c>
     </row>
@@ -1841,10 +1839,10 @@
       <c r="E63" s="1" t="n">
         <v>0.1079</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="1" t="n">
         <v>13.8937</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="1" t="n">
         <v>0.2101</v>
       </c>
     </row>
@@ -1864,10 +1862,10 @@
       <c r="E64" s="1" t="n">
         <v>0.1072</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="1" t="n">
         <v>14.3194</v>
       </c>
-      <c r="G64" s="2" t="n">
+      <c r="G64" s="1" t="n">
         <v>0.2143</v>
       </c>
     </row>
@@ -1887,10 +1885,10 @@
       <c r="E65" s="1" t="n">
         <v>0.1084</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" s="1" t="n">
         <v>14.0467</v>
       </c>
-      <c r="G65" s="2" t="n">
+      <c r="G65" s="1" t="n">
         <v>0.2174</v>
       </c>
     </row>
@@ -1910,10 +1908,10 @@
       <c r="E66" s="1" t="n">
         <v>0.1103</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="1" t="n">
         <v>14.325</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="1" t="n">
         <v>0.2147</v>
       </c>
     </row>
@@ -1933,10 +1931,10 @@
       <c r="E67" s="1" t="n">
         <v>0.1071</v>
       </c>
-      <c r="F67" s="2" t="n">
+      <c r="F67" s="1" t="n">
         <v>14.2096</v>
       </c>
-      <c r="G67" s="2" t="n">
+      <c r="G67" s="1" t="n">
         <v>0.2116</v>
       </c>
     </row>
@@ -1956,10 +1954,10 @@
       <c r="E68" s="1" t="n">
         <v>0.1056</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="1" t="n">
         <v>14.1015</v>
       </c>
-      <c r="G68" s="2" t="n">
+      <c r="G68" s="1" t="n">
         <v>0.217</v>
       </c>
     </row>
@@ -1979,10 +1977,10 @@
       <c r="E69" s="1" t="n">
         <v>0.1079</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="1" t="n">
         <v>14.2179</v>
       </c>
-      <c r="G69" s="2" t="n">
+      <c r="G69" s="1" t="n">
         <v>0.2102</v>
       </c>
     </row>
@@ -2002,10 +2000,10 @@
       <c r="E70" s="1" t="n">
         <v>0.1114</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" s="1" t="n">
         <v>14.2354</v>
       </c>
-      <c r="G70" s="2" t="n">
+      <c r="G70" s="1" t="n">
         <v>0.2203</v>
       </c>
     </row>
@@ -2028,7 +2026,7 @@
       <c r="F71" s="1" t="n">
         <v>14.1868</v>
       </c>
-      <c r="G71" s="2" t="n">
+      <c r="G71" s="1" t="n">
         <v>0.2121</v>
       </c>
     </row>
@@ -2056,171 +2054,171 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="31.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="30.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="31.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="30.25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>0.003</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.006</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.006</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2" t="n">
         <v>625</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>0.007</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2" t="n">
         <v>1200</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.26</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="2" t="n">
         <v>1200</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="2" t="n">
         <v>5625</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>4.6</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>14.2</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2242,403 +2240,403 @@
   </sheetPr>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="18.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="18.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="21.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="21.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1" t="n">
         <v>1E-005</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>0.0001</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="J2" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M2" s="2" t="n">
+      <c r="L2" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="O2" s="2" t="n">
+      <c r="N2" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="1" t="n">
         <v>625</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1" t="n">
         <v>5E-005</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>1402</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="K3" s="2" t="n">
+      <c r="J3" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>628</v>
       </c>
-      <c r="L3" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M3" s="2" t="n">
+      <c r="L3" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M3" s="1" t="n">
         <v>1300</v>
       </c>
-      <c r="N3" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="O3" s="2" t="n">
+      <c r="N3" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="O3" s="1" t="n">
         <v>1213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.0008</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>2612</v>
       </c>
-      <c r="J4" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="J4" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <v>1203</v>
       </c>
-      <c r="L4" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M4" s="2" t="n">
+      <c r="L4" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M4" s="1" t="n">
         <v>2470</v>
       </c>
-      <c r="N4" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="O4" s="2" t="n">
+      <c r="N4" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="O4" s="1" t="n">
         <v>2313</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.0001</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>2612</v>
       </c>
-      <c r="J5" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="K5" s="2" t="n">
+      <c r="J5" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>1203</v>
       </c>
-      <c r="L5" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M5" s="2" t="n">
+      <c r="L5" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M5" s="1" t="n">
         <v>2470</v>
       </c>
-      <c r="N5" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="O5" s="2" t="n">
+      <c r="N5" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="O5" s="1" t="n">
         <v>2364</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="1" t="n">
         <v>2500</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.00015</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="I6" s="2" t="n">
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>5302</v>
       </c>
-      <c r="J6" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="K6" s="2" t="n">
+      <c r="J6" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>2503</v>
       </c>
-      <c r="L6" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M6" s="2" t="n">
+      <c r="L6" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M6" s="1" t="n">
         <v>5100</v>
       </c>
-      <c r="N6" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="O6" s="2" t="n">
+      <c r="N6" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="O6" s="1" t="n">
         <v>4981</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="1" t="n">
         <v>5625</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.0006</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>0.015</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>11702</v>
       </c>
-      <c r="J7" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="K7" s="2" t="n">
+      <c r="J7" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>5628</v>
       </c>
-      <c r="L7" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M7" s="2" t="n">
+      <c r="L7" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>11400</v>
       </c>
-      <c r="N7" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="O7" s="2" t="n">
+      <c r="N7" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>11232</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.0007</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="I8" s="2" t="n">
+      <c r="G8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>20602</v>
       </c>
-      <c r="J8" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="K8" s="2" t="n">
+      <c r="J8" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="K8" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L8" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M8" s="2" t="n">
+      <c r="L8" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>20200</v>
       </c>
-      <c r="N8" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="O8" s="2" t="n">
+      <c r="N8" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="O8" s="1" t="n">
         <v>19886</v>
       </c>
     </row>
@@ -2660,604 +2658,603 @@
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="19.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="21.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="20.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="17.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="21.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="24" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="20.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="17.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="21.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>5E-006</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="M2" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>5E-005</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>725</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J3" s="2" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K2" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="K3" s="2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>628</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="T2" s="3" t="n">
+      <c r="R3" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>628</v>
+      </c>
+      <c r="T3" s="2" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U2" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="V2" s="3" t="n">
+      <c r="U3" s="2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>1340</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.00033</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <v>2E-006</v>
       </c>
-      <c r="W2" s="3" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>625</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>7E-005</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>725</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="3" t="n">
+      <c r="K4" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>1203</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>1203</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>1340</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="I5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J5" s="2" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>1300</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>628</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="K5" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>1203</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>628</v>
-      </c>
-      <c r="T3" s="3" t="n">
+      <c r="R5" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>1203</v>
+      </c>
+      <c r="T5" s="2" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U3" s="3" t="n">
-        <v>1300</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>1.6E-005</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0.00013</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1340</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I4" s="3" t="n">
+      <c r="U5" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K4" s="3" t="n">
-        <v>2470</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>1203</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="K6" s="2" t="n">
+        <v>5100</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>2503</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>1203</v>
-      </c>
-      <c r="T4" s="3" t="n">
+      <c r="R6" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>2503</v>
+      </c>
+      <c r="T6" s="2" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U4" s="3" t="n">
-        <v>2470</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>3.2E-005</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0.00013</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>1340</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I5" s="3" t="n">
+      <c r="U6" s="2" t="n">
+        <v>5100</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>5925</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="I7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J7" s="2" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K5" s="3" t="n">
-        <v>2470</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>1203</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="K7" s="2" t="n">
+        <v>11400</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>5628</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S5" s="3" t="n">
-        <v>1203</v>
-      </c>
-      <c r="T5" s="3" t="n">
+      <c r="R7" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>5628</v>
+      </c>
+      <c r="T7" s="2" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U5" s="3" t="n">
-        <v>2470</v>
-      </c>
-      <c r="V5" s="3" t="n">
-        <v>3.2E-005</v>
-      </c>
-      <c r="W5" s="3" t="n">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="U7" s="2" t="n">
+        <v>11400</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>11222</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>10400</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3" t="n">
+      <c r="J8" s="2" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K6" s="3" t="n">
-        <v>5100</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>2503</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="K8" s="2" t="n">
+        <v>20200</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>10003</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="Q8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>2503</v>
-      </c>
-      <c r="T6" s="3" t="n">
+      <c r="R8" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>10003</v>
+      </c>
+      <c r="T8" s="2" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U6" s="3" t="n">
-        <v>5100</v>
-      </c>
-      <c r="V6" s="3" t="n">
-        <v>6.5E-005</v>
-      </c>
-      <c r="W6" s="3" t="n">
-        <v>4962</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>5625</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>0.0006</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>5925</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>11400</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>5628</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>5628</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>11400</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>0.00014</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>11226</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>10400</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K8" s="3" t="n">
+      <c r="U8" s="2" t="n">
         <v>20200</v>
       </c>
-      <c r="L8" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>10003</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S8" s="3" t="n">
-        <v>10003</v>
-      </c>
-      <c r="T8" s="3" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U8" s="3" t="n">
-        <v>20200</v>
-      </c>
-      <c r="V8" s="3" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="W8" s="3" t="n">
-        <v>19975</v>
+      <c r="V8" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>19968</v>
       </c>
     </row>
   </sheetData>
@@ -3278,603 +3275,604 @@
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q29" activeCellId="0" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="19.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="21.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="20.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="17.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="20.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="17.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="21.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="24" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G2" s="3" t="n">
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="H2" s="2" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="2" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="L2" s="3" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M2" s="3" t="n">
+      <c r="L2" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="V2" s="2" t="n">
         <v>2E-006</v>
       </c>
-      <c r="S2" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="T2" s="3" t="n">
+      <c r="W2" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>7E-005</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>725</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>628</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>628</v>
+      </c>
+      <c r="T3" s="2" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U2" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>625</v>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="U3" s="2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>1.6E-005</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>1340</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>1203</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>725</v>
-      </c>
-      <c r="H3" s="3" t="n">
+      <c r="P4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>1203</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>3.2E-005</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>1340</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>1203</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>1203</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>3.2E-005</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>5100</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>2503</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>2503</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>5100</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>6.5E-005</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>5925</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>11400</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>5628</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>5628</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>11400</v>
+      </c>
+      <c r="V7" s="2" t="n">
         <v>0.00014</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="W7" s="2" t="n">
+        <v>11226</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>10400</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J8" s="2" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>1300</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>628</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="K8" s="2" t="n">
+        <v>20200</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>10003</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>628</v>
-      </c>
-      <c r="T3" s="3" t="n">
+      <c r="R8" s="2" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>10003</v>
+      </c>
+      <c r="T8" s="2" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U3" s="3" t="n">
-        <v>1300</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1340</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0.00033</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>2470</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>1203</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>1203</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>2470</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>1340</v>
-      </c>
-      <c r="H5" s="3" t="n">
+      <c r="U8" s="2" t="n">
+        <v>20200</v>
+      </c>
+      <c r="V8" s="2" t="n">
         <v>0.0003</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>2470</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>1203</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="S5" s="3" t="n">
-        <v>1203</v>
-      </c>
-      <c r="T5" s="3" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U5" s="3" t="n">
-        <v>2470</v>
-      </c>
-      <c r="V5" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W5" s="3" t="n">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>5100</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>2503</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>2503</v>
-      </c>
-      <c r="T6" s="3" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U6" s="3" t="n">
-        <v>5100</v>
-      </c>
-      <c r="V6" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W6" s="3" t="n">
-        <v>4988</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>5625</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>5925</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>11400</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>5628</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>5628</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>11400</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>11222</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>10400</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>20200</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>10003</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="S8" s="3" t="n">
-        <v>10003</v>
-      </c>
-      <c r="T8" s="3" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U8" s="3" t="n">
-        <v>20200</v>
-      </c>
-      <c r="V8" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W8" s="3" t="n">
-        <v>19968</v>
+      <c r="W8" s="2" t="n">
+        <v>19975</v>
       </c>
     </row>
   </sheetData>

--- a/dataGen/empiricalData.xlsx
+++ b/dataGen/empiricalData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="totalRuntimes" sheetId="1" state="visible" r:id="rId3"/>
@@ -13,6 +13,8 @@
     <sheet name="arrayFunctions" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="adjListFunctions" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="adjMatFunctions" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="horizontalMaze" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="verticalMaze" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="63">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -53,10 +55,7 @@
     <t xml:space="preserve">25x25</t>
   </si>
   <si>
-    <t xml:space="preserve">40x30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30x40</t>
+    <t xml:space="preserve">35x35</t>
   </si>
   <si>
     <t xml:space="preserve">50x50</t>
@@ -68,6 +67,12 @@
     <t xml:space="preserve">100x100</t>
   </si>
   <si>
+    <t xml:space="preserve">150x150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200x200</t>
+  </si>
+  <si>
     <t xml:space="preserve">totalArrayAverage</t>
   </si>
   <si>
@@ -162,6 +167,54 @@
   </si>
   <si>
     <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x1600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600x5</t>
   </si>
 </sst>
 </file>
@@ -171,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -194,6 +247,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -242,7 +302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -251,12 +311,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -382,10 +462,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -397,26 +477,26 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -891,16 +971,16 @@
         <v>9</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>0.0233</v>
+        <v>1225</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0.247</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,16 +994,16 @@
         <v>9</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>0.0246</v>
+        <v>1225</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0.253</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,16 +1017,16 @@
         <v>9</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>0.0126</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>0.2621</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>0.0239</v>
+        <v>1225</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,16 +1040,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>0.0122</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>0.0238</v>
+        <v>1225</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0.266</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,16 +1063,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>0.2603</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>0.0257</v>
+        <v>1225</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>0.273</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,16 +1086,16 @@
         <v>9</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>0.0126</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>0.0243</v>
+        <v>1225</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>0.256</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,16 +1109,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>0.0242</v>
+        <v>1225</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.0147</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0.265</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,16 +1132,16 @@
         <v>9</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>0.0138</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>0.2595</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>0.0242</v>
+        <v>1225</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0.257</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,16 +1155,16 @@
         <v>9</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>0.0123</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>0.2593</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>0.0261</v>
+        <v>1225</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0.252</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,16 +1178,16 @@
         <v>9</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>0.0133</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>0.2642</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>0.0239</v>
+        <v>1225</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.0152</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0.262</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,16 +1201,16 @@
         <v>10</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.0135</v>
+        <v>0.0277</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.2378</v>
+        <v>0.9426</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.0229</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,16 +1224,16 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.0131</v>
+        <v>0.0276</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>0.2526</v>
+        <v>0.9715</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>0.0265</v>
+        <v>0.0533</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,16 +1247,16 @@
         <v>10</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0.0127</v>
+        <v>0.0288</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>0.2433</v>
+        <v>0.9583</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.0235</v>
+        <v>0.0496</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,16 +1270,16 @@
         <v>10</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0.0127</v>
+        <v>0.0291</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>0.2402</v>
+        <v>0.9543</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.0281</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,16 +1293,16 @@
         <v>10</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0.0131</v>
+        <v>0.0281</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>0.245</v>
+        <v>0.9649</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.0243</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,16 +1316,16 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.0133</v>
+        <v>0.0271</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0.2428</v>
+        <v>0.951</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.0239</v>
+        <v>0.0493</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,16 +1339,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.0135</v>
+        <v>0.0288</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.245</v>
+        <v>1.0137</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.0244</v>
+        <v>0.0495</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,16 +1362,16 @@
         <v>10</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.0127</v>
+        <v>0.028</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.2396</v>
+        <v>0.972</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.0241</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,16 +1385,16 @@
         <v>10</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.0127</v>
+        <v>0.0286</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.2429</v>
+        <v>0.9796</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.024</v>
+        <v>0.0493</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,16 +1408,16 @@
         <v>10</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.0127</v>
+        <v>0.0271</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0.2466</v>
+        <v>0.9566</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.0242</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,16 +1431,16 @@
         <v>11</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>0.0277</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <v>0.9426</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>0.0479</v>
+        <v>5625</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>0.095</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,16 +1454,16 @@
         <v>11</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>0.0276</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <v>0.9715</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>0.0533</v>
+        <v>5625</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>0.0975</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,16 +1477,16 @@
         <v>11</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>0.0288</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>0.9583</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>0.0496</v>
+        <v>5625</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,16 +1500,16 @@
         <v>11</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>0.0291</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>0.9543</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>0.0511</v>
+        <v>5625</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>0.1025</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,16 +1523,16 @@
         <v>11</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>0.0281</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>0.9649</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>0.0501</v>
+        <v>5625</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0.105</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,16 +1546,16 @@
         <v>11</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>0.0271</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>0.951</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <v>0.0493</v>
+        <v>5625</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>0.096</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,16 +1569,16 @@
         <v>11</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>0.0288</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>1.0137</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>0.0495</v>
+        <v>5625</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,16 +1592,16 @@
         <v>11</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>0.0502</v>
+        <v>5625</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>0.0575</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>0.101</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,16 +1615,16 @@
         <v>11</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>0.0286</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>0.9796</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>0.0493</v>
+        <v>5625</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>0.104</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,16 +1638,16 @@
         <v>11</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>0.0271</v>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>0.9566</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>0.0538</v>
+        <v>5625</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>0.0585</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>0.099</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,16 +1661,16 @@
         <v>12</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>5625</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>0.0603</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>4.6412</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>0.1089</v>
+        <v>10000</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>0.0955</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>0.194</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,16 +1684,16 @@
         <v>12</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>5625</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>0.0607</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>4.6026</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>0.1098</v>
+        <v>10000</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>0.197</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,16 +1707,16 @@
         <v>12</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>5625</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>0.0645</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>4.6393</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <v>0.1091</v>
+        <v>10000</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>0.198</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,16 +1730,16 @@
         <v>12</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>5625</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>0.0605</v>
-      </c>
-      <c r="F55" s="1" t="n">
-        <v>4.6571</v>
-      </c>
-      <c r="G55" s="1" t="n">
-        <v>0.1159</v>
+        <v>10000</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>0.193</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,16 +1753,16 @@
         <v>12</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>5625</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>0.0644</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>4.6258</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>0.1115</v>
+        <v>10000</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>0.1045</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>0.194</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,16 +1776,16 @@
         <v>12</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>5625</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>0.0608</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>4.5673</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>0.1099</v>
+        <v>10000</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>0.0965</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>0.195</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,16 +1799,16 @@
         <v>12</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>5625</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>0.0618</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>4.6696</v>
-      </c>
-      <c r="G58" s="1" t="n">
-        <v>0.1122</v>
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>0.0985</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>0.196</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,16 +1822,16 @@
         <v>12</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>5625</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>0.0606</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>4.6327</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>0.1133</v>
+        <v>10000</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>0.1015</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>0.197</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,16 +1845,16 @@
         <v>12</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>5625</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>4.6333</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>0.1148</v>
+        <v>10000</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>0.1035</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>0.198</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,16 +1868,16 @@
         <v>12</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>5625</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>0.0609</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>4.6922</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>0.1179</v>
+        <v>10000</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>0.0995</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,16 +1891,16 @@
         <v>13</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>0.1087</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>14.215</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>0.2091</v>
+        <v>22500</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>76.83</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>0.6272</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,16 +1914,16 @@
         <v>13</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>0.1079</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>13.8937</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <v>0.2101</v>
+        <v>22500</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>77.01</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>0.6352</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,16 +1937,16 @@
         <v>13</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>0.1072</v>
-      </c>
-      <c r="F64" s="1" t="n">
-        <v>14.3194</v>
-      </c>
-      <c r="G64" s="1" t="n">
-        <v>0.2143</v>
+        <v>22500</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>77.34</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,16 +1960,16 @@
         <v>13</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>0.1084</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>14.0467</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>0.2174</v>
+        <v>22500</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>0.6448</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,16 +1983,16 @@
         <v>13</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>0.1103</v>
-      </c>
-      <c r="F66" s="1" t="n">
-        <v>14.325</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>0.2147</v>
+        <v>22500</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>0.6528</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,16 +2006,16 @@
         <v>13</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E67" s="1" t="n">
-        <v>0.1071</v>
-      </c>
-      <c r="F67" s="1" t="n">
-        <v>14.2096</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <v>0.2116</v>
+        <v>22500</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>0.2575</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>78.81</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>0.6312</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,16 +2029,16 @@
         <v>13</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E68" s="1" t="n">
-        <v>0.1056</v>
-      </c>
-      <c r="F68" s="1" t="n">
-        <v>14.1015</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>0.217</v>
+        <v>22500</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>79.16</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>0.6472</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,16 +2052,16 @@
         <v>13</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>0.1079</v>
-      </c>
-      <c r="F69" s="1" t="n">
-        <v>14.2179</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>0.2102</v>
+        <v>22500</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>79.49</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>0.6384</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,16 +2075,16 @@
         <v>13</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>0.1114</v>
-      </c>
-      <c r="F70" s="1" t="n">
-        <v>14.2354</v>
-      </c>
-      <c r="G70" s="1" t="n">
-        <v>0.2203</v>
+        <v>22500</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>79.67</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>0.6496</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,16 +2098,246 @@
         <v>13</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>14.1868</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <v>0.2121</v>
+        <v>22500</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>80.17</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>0.6304</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>0.4508</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>252.84</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>0.931</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>0.4552</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>256.04</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>0.941</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>258</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>0.4644</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>259.96</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>0.4692</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>263.16</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>0.969</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>0.4536</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>253.68</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>0.934</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>0.4572</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>257.24</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>0.4628</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>260.52</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>0.4672</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>262.48</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>0.964</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>0.4516</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>254.92</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>0.939</v>
       </c>
     </row>
   </sheetData>
@@ -2046,180 +2356,201 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="31.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="30.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="31.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="30.25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="4" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>625</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>22500</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>625</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>5625</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0.2</v>
+      <c r="C9" s="6" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>258</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -2238,10 +2569,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2264,51 +2595,51 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,16 +2744,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1200</v>
+        <v>1225</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.0008</v>
+        <v>8E-005</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>1</v>
@@ -2431,25 +2762,25 @@
         <v>1E-006</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>2612</v>
+        <v>2662</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>1203</v>
+        <v>1228</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>2470</v>
+        <v>2520</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>2313</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,16 +2791,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.0001</v>
+        <v>0.00015</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>1</v>
@@ -2478,25 +2809,25 @@
         <v>1E-006</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>2612</v>
+        <v>5302</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1203</v>
+        <v>2503</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>2470</v>
+        <v>5100</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>2364</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,16 +2838,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2500</v>
+        <v>5625</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.00015</v>
+        <v>0.0006</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>1</v>
@@ -2525,25 +2856,25 @@
         <v>1E-006</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>5302</v>
+        <v>11702</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>2503</v>
+        <v>5628</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>5100</v>
+        <v>11400</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>4981</v>
+        <v>11232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,16 +2885,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>5625</v>
+        <v>10000</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>1</v>
@@ -2572,25 +2903,25 @@
         <v>1E-006</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>11702</v>
+        <v>20602</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>5628</v>
+        <v>10003</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>11400</v>
+        <v>20200</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>11232</v>
+        <v>19886</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,16 +2932,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.0007</v>
+        <v>0.0015</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>1</v>
@@ -2619,25 +2950,72 @@
         <v>1E-006</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>20602</v>
+        <v>45902</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>10003</v>
+        <v>22503</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>20200</v>
+        <v>45300</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>19886</v>
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>81202</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>40003</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>80400</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>79964</v>
       </c>
     </row>
   </sheetData>
@@ -2656,605 +3034,677 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X6" activeCellId="0" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="21.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="20.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="17.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="20.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="4" width="20.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="4" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="4" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="4" width="17.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="4" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="4" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="4" width="21.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="24" style="7" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W2" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>625</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>725</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>628</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>628</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1365</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.00029</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2520</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1228</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>1228</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2520</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5100</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2503</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>2503</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5100</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5925</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11400</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5628</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>5628</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11400</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11222</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>10400</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>20200</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>10003</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>10003</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>20200</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>19968</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>22500</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="E8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>23100</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J8" s="4" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K2" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="L2" s="2" t="n">
+      <c r="K8" s="4" t="n">
+        <v>45300</v>
+      </c>
+      <c r="L8" s="4" t="n">
         <v>5E-006</v>
       </c>
-      <c r="M2" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="2" t="n">
+      <c r="M8" s="4" t="n">
+        <v>22503</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="P8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R8" s="4" t="n">
         <v>2E-006</v>
       </c>
-      <c r="S2" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="T2" s="2" t="n">
+      <c r="S8" s="4" t="n">
+        <v>22503</v>
+      </c>
+      <c r="T8" s="4" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U2" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="U8" s="4" t="n">
+        <v>45300</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>625</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>725</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0.00014</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="E9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>40800</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J9" s="4" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K3" s="2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="L3" s="2" t="n">
+      <c r="K9" s="4" t="n">
+        <v>80400</v>
+      </c>
+      <c r="L9" s="4" t="n">
         <v>5E-006</v>
       </c>
-      <c r="M3" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="2" t="n">
+      <c r="M9" s="4" t="n">
+        <v>40003</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="2" t="n">
+      <c r="P9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R9" s="4" t="n">
         <v>2E-006</v>
       </c>
-      <c r="S3" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="T3" s="2" t="n">
+      <c r="S9" s="4" t="n">
+        <v>40003</v>
+      </c>
+      <c r="T9" s="4" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U3" s="2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>1340</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0.00033</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>2470</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>1203</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>1203</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>2470</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>1340</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>2470</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>1203</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>1203</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>2470</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>5100</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>2503</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>2503</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>5100</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>4988</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>5625</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>5925</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>11400</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>5628</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>5628</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>11400</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>11222</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>10400</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>20200</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>10003</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>10003</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>20200</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>19968</v>
+      <c r="U9" s="4" t="n">
+        <v>80400</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>79920</v>
       </c>
     </row>
   </sheetData>
@@ -3273,606 +3723,677 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q29" activeCellId="0" sqref="Q29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V4" activeCellId="0" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="21.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="20.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="17.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="21.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="24" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="20.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="4" width="20.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="4" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="4" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="4" width="17.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="4" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="4" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="4" width="21.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="24" style="4" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="W2" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>625</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>7E-005</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>725</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>628</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>628</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.6E-005</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1365</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2520</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1228</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>1228</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2470</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>3.1E-005</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5100</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2503</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>2503</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5100</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>6.5E-005</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5925</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11400</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5628</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>5628</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11400</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11226</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>10400</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>20200</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>10003</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>10003</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>20200</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>19975</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>22500</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>23100</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>45300</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>22503</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>5E-005</v>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="P8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>22503</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>45300</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>40800</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J9" s="4" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K2" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="2" t="n">
+      <c r="K9" s="4" t="n">
+        <v>80400</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>40003</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="P9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="T2" s="2" t="n">
+      <c r="R9" s="4" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>40003</v>
+      </c>
+      <c r="T9" s="4" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U2" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>625</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>7E-005</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>725</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>1.6E-005</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0.00013</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>1340</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>2470</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>1203</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>1203</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>2470</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>3.2E-005</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0.00013</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>1340</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>2470</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>1203</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>1203</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>2470</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>3.2E-005</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>5100</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>2503</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>2503</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>5100</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>6.5E-005</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>4962</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>5625</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0.0006</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>5925</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>11400</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>5628</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>5628</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>11400</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>0.00014</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>11226</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>10400</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>20200</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>10003</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>10003</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>3E-006</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>20200</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>19975</v>
+      <c r="U9" s="4" t="n">
+        <v>80400</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>79975</v>
       </c>
     </row>
   </sheetData>
@@ -3884,4 +4405,428 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="28.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="7" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="28.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="7" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.087</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/dataGen/empiricalData.xlsx
+++ b/dataGen/empiricalData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="totalRuntimes" sheetId="1" state="visible" r:id="rId3"/>
@@ -302,7 +302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,28 +315,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -464,7 +448,7 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -973,13 +957,13 @@
       <c r="D22" s="1" t="n">
         <v>1225</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="1" t="n">
         <v>0.0126</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="1" t="n">
         <v>0.247</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="1" t="n">
         <v>0.247</v>
       </c>
     </row>
@@ -996,13 +980,13 @@
       <c r="D23" s="1" t="n">
         <v>1225</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="1" t="n">
         <v>0.0134</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="1" t="n">
         <v>0.253</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="1" t="n">
         <v>0.253</v>
       </c>
     </row>
@@ -1019,13 +1003,13 @@
       <c r="D24" s="1" t="n">
         <v>1225</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="1" t="n">
         <v>0.014</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="1" t="n">
         <v>0.26</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="1" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1042,13 +1026,13 @@
       <c r="D25" s="1" t="n">
         <v>1225</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="1" t="n">
         <v>0.0146</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="1" t="n">
         <v>0.266</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="1" t="n">
         <v>0.266</v>
       </c>
     </row>
@@ -1065,13 +1049,13 @@
       <c r="D26" s="1" t="n">
         <v>1225</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="1" t="n">
         <v>0.0154</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="1" t="n">
         <v>0.273</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="1" t="n">
         <v>0.273</v>
       </c>
     </row>
@@ -1088,13 +1072,13 @@
       <c r="D27" s="1" t="n">
         <v>1225</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="1" t="n">
         <v>0.0138</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="1" t="n">
         <v>0.256</v>
       </c>
     </row>
@@ -1111,13 +1095,13 @@
       <c r="D28" s="1" t="n">
         <v>1225</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="1" t="n">
         <v>0.0147</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="1" t="n">
         <v>0.257</v>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G28" s="1" t="n">
         <v>0.265</v>
       </c>
     </row>
@@ -1134,13 +1118,13 @@
       <c r="D29" s="1" t="n">
         <v>1225</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="1" t="n">
         <v>0.0132</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="1" t="n">
         <v>0.264</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="1" t="n">
         <v>0.257</v>
       </c>
     </row>
@@ -1157,13 +1141,13 @@
       <c r="D30" s="1" t="n">
         <v>1225</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="1" t="n">
         <v>0.0143</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="1" t="n">
         <v>0.269</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="1" t="n">
         <v>0.252</v>
       </c>
     </row>
@@ -1180,13 +1164,13 @@
       <c r="D31" s="1" t="n">
         <v>1225</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="1" t="n">
         <v>0.0152</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="1" t="n">
         <v>0.256</v>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G31" s="1" t="n">
         <v>0.262</v>
       </c>
     </row>
@@ -1433,13 +1417,13 @@
       <c r="D42" s="1" t="n">
         <v>5625</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="1" t="n">
         <v>0.057</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" s="1" t="n">
         <v>4.37</v>
       </c>
-      <c r="G42" s="3" t="n">
+      <c r="G42" s="1" t="n">
         <v>0.095</v>
       </c>
     </row>
@@ -1456,13 +1440,13 @@
       <c r="D43" s="1" t="n">
         <v>5625</v>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="1" t="n">
         <v>0.058</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F43" s="1" t="n">
         <v>4.49</v>
       </c>
-      <c r="G43" s="3" t="n">
+      <c r="G43" s="1" t="n">
         <v>0.0975</v>
       </c>
     </row>
@@ -1479,13 +1463,13 @@
       <c r="D44" s="1" t="n">
         <v>5625</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="1" t="n">
         <v>0.059</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F44" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="1" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1502,13 +1486,13 @@
       <c r="D45" s="1" t="n">
         <v>5625</v>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="F45" s="3" t="n">
+      <c r="F45" s="1" t="n">
         <v>4.71</v>
       </c>
-      <c r="G45" s="3" t="n">
+      <c r="G45" s="1" t="n">
         <v>0.1025</v>
       </c>
     </row>
@@ -1525,13 +1509,13 @@
       <c r="D46" s="1" t="n">
         <v>5625</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="1" t="n">
         <v>0.061</v>
       </c>
-      <c r="F46" s="3" t="n">
+      <c r="F46" s="1" t="n">
         <v>4.83</v>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="1" t="n">
         <v>0.105</v>
       </c>
     </row>
@@ -1548,13 +1532,13 @@
       <c r="D47" s="1" t="n">
         <v>5625</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="1" t="n">
         <v>0.062</v>
       </c>
-      <c r="F47" s="3" t="n">
+      <c r="F47" s="1" t="n">
         <v>4.4</v>
       </c>
-      <c r="G47" s="3" t="n">
+      <c r="G47" s="1" t="n">
         <v>0.096</v>
       </c>
     </row>
@@ -1571,13 +1555,13 @@
       <c r="D48" s="1" t="n">
         <v>5625</v>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="F48" s="3" t="n">
+      <c r="F48" s="1" t="n">
         <v>4.54</v>
       </c>
-      <c r="G48" s="3" t="n">
+      <c r="G48" s="1" t="n">
         <v>0.098</v>
       </c>
     </row>
@@ -1594,13 +1578,13 @@
       <c r="D49" s="1" t="n">
         <v>5625</v>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" s="1" t="n">
         <v>0.0575</v>
       </c>
-      <c r="F49" s="3" t="n">
+      <c r="F49" s="1" t="n">
         <v>4.67</v>
       </c>
-      <c r="G49" s="3" t="n">
+      <c r="G49" s="1" t="n">
         <v>0.101</v>
       </c>
     </row>
@@ -1617,13 +1601,13 @@
       <c r="D50" s="1" t="n">
         <v>5625</v>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="1" t="n">
         <v>0.0625</v>
       </c>
-      <c r="F50" s="3" t="n">
+      <c r="F50" s="1" t="n">
         <v>4.79</v>
       </c>
-      <c r="G50" s="3" t="n">
+      <c r="G50" s="1" t="n">
         <v>0.104</v>
       </c>
     </row>
@@ -1640,13 +1624,13 @@
       <c r="D51" s="1" t="n">
         <v>5625</v>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="1" t="n">
         <v>0.0585</v>
       </c>
-      <c r="F51" s="3" t="n">
+      <c r="F51" s="1" t="n">
         <v>4.43</v>
       </c>
-      <c r="G51" s="3" t="n">
+      <c r="G51" s="1" t="n">
         <v>0.099</v>
       </c>
     </row>
@@ -1663,13 +1647,13 @@
       <c r="D52" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="1" t="n">
         <v>0.0955</v>
       </c>
-      <c r="F52" s="3" t="n">
+      <c r="F52" s="1" t="n">
         <v>13.49</v>
       </c>
-      <c r="G52" s="3" t="n">
+      <c r="G52" s="1" t="n">
         <v>0.194</v>
       </c>
     </row>
@@ -1686,13 +1670,13 @@
       <c r="D53" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" s="1" t="n">
         <v>0.097</v>
       </c>
-      <c r="F53" s="3" t="n">
+      <c r="F53" s="1" t="n">
         <v>13.89</v>
       </c>
-      <c r="G53" s="3" t="n">
+      <c r="G53" s="1" t="n">
         <v>0.197</v>
       </c>
     </row>
@@ -1709,13 +1693,13 @@
       <c r="D54" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E54" s="3" t="n">
+      <c r="E54" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="F54" s="3" t="n">
+      <c r="F54" s="1" t="n">
         <v>14.2</v>
       </c>
-      <c r="G54" s="3" t="n">
+      <c r="G54" s="1" t="n">
         <v>0.198</v>
       </c>
     </row>
@@ -1732,13 +1716,13 @@
       <c r="D55" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="1" t="n">
         <v>0.102</v>
       </c>
-      <c r="F55" s="3" t="n">
+      <c r="F55" s="1" t="n">
         <v>14.51</v>
       </c>
-      <c r="G55" s="3" t="n">
+      <c r="G55" s="1" t="n">
         <v>0.193</v>
       </c>
     </row>
@@ -1755,13 +1739,13 @@
       <c r="D56" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E56" s="3" t="n">
+      <c r="E56" s="1" t="n">
         <v>0.1045</v>
       </c>
-      <c r="F56" s="3" t="n">
+      <c r="F56" s="1" t="n">
         <v>14.91</v>
       </c>
-      <c r="G56" s="3" t="n">
+      <c r="G56" s="1" t="n">
         <v>0.194</v>
       </c>
     </row>
@@ -1778,13 +1762,13 @@
       <c r="D57" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="E57" s="1" t="n">
         <v>0.0965</v>
       </c>
-      <c r="F57" s="3" t="n">
+      <c r="F57" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="G57" s="3" t="n">
+      <c r="G57" s="1" t="n">
         <v>0.195</v>
       </c>
     </row>
@@ -1801,13 +1785,13 @@
       <c r="D58" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="1" t="n">
         <v>0.0985</v>
       </c>
-      <c r="F58" s="3" t="n">
+      <c r="F58" s="1" t="n">
         <v>14.07</v>
       </c>
-      <c r="G58" s="3" t="n">
+      <c r="G58" s="1" t="n">
         <v>0.196</v>
       </c>
     </row>
@@ -1824,13 +1808,13 @@
       <c r="D59" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="E59" s="1" t="n">
         <v>0.1015</v>
       </c>
-      <c r="F59" s="3" t="n">
+      <c r="F59" s="1" t="n">
         <v>14.35</v>
       </c>
-      <c r="G59" s="3" t="n">
+      <c r="G59" s="1" t="n">
         <v>0.197</v>
       </c>
     </row>
@@ -1847,13 +1831,13 @@
       <c r="D60" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E60" s="3" t="n">
+      <c r="E60" s="1" t="n">
         <v>0.1035</v>
       </c>
-      <c r="F60" s="3" t="n">
+      <c r="F60" s="1" t="n">
         <v>14.78</v>
       </c>
-      <c r="G60" s="3" t="n">
+      <c r="G60" s="1" t="n">
         <v>0.198</v>
       </c>
     </row>
@@ -1870,13 +1854,13 @@
       <c r="D61" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E61" s="3" t="n">
+      <c r="E61" s="1" t="n">
         <v>0.0995</v>
       </c>
-      <c r="F61" s="3" t="n">
+      <c r="F61" s="1" t="n">
         <v>13.58</v>
       </c>
-      <c r="G61" s="3" t="n">
+      <c r="G61" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1893,13 +1877,13 @@
       <c r="D62" s="1" t="n">
         <v>22500</v>
       </c>
-      <c r="E62" s="3" t="n">
+      <c r="E62" s="1" t="n">
         <v>0.2375</v>
       </c>
-      <c r="F62" s="3" t="n">
+      <c r="F62" s="1" t="n">
         <v>76.83</v>
       </c>
-      <c r="G62" s="3" t="n">
+      <c r="G62" s="1" t="n">
         <v>0.6272</v>
       </c>
     </row>
@@ -1916,13 +1900,13 @@
       <c r="D63" s="1" t="n">
         <v>22500</v>
       </c>
-      <c r="E63" s="3" t="n">
+      <c r="E63" s="1" t="n">
         <v>0.2425</v>
       </c>
-      <c r="F63" s="3" t="n">
+      <c r="F63" s="1" t="n">
         <v>77.01</v>
       </c>
-      <c r="G63" s="3" t="n">
+      <c r="G63" s="1" t="n">
         <v>0.6352</v>
       </c>
     </row>
@@ -1939,13 +1923,13 @@
       <c r="D64" s="1" t="n">
         <v>22500</v>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="E64" s="1" t="n">
         <v>0.2475</v>
       </c>
-      <c r="F64" s="3" t="n">
+      <c r="F64" s="1" t="n">
         <v>77.34</v>
       </c>
-      <c r="G64" s="3" t="n">
+      <c r="G64" s="1" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -1962,13 +1946,13 @@
       <c r="D65" s="1" t="n">
         <v>22500</v>
       </c>
-      <c r="E65" s="3" t="n">
+      <c r="E65" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="F65" s="3" t="n">
+      <c r="F65" s="1" t="n">
         <v>77.69</v>
       </c>
-      <c r="G65" s="3" t="n">
+      <c r="G65" s="1" t="n">
         <v>0.6448</v>
       </c>
     </row>
@@ -1985,13 +1969,13 @@
       <c r="D66" s="1" t="n">
         <v>22500</v>
       </c>
-      <c r="E66" s="3" t="n">
+      <c r="E66" s="1" t="n">
         <v>0.2525</v>
       </c>
-      <c r="F66" s="3" t="n">
+      <c r="F66" s="1" t="n">
         <v>78.5</v>
       </c>
-      <c r="G66" s="3" t="n">
+      <c r="G66" s="1" t="n">
         <v>0.6528</v>
       </c>
     </row>
@@ -2008,13 +1992,13 @@
       <c r="D67" s="1" t="n">
         <v>22500</v>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" s="1" t="n">
         <v>0.2575</v>
       </c>
-      <c r="F67" s="3" t="n">
+      <c r="F67" s="1" t="n">
         <v>78.81</v>
       </c>
-      <c r="G67" s="3" t="n">
+      <c r="G67" s="1" t="n">
         <v>0.6312</v>
       </c>
     </row>
@@ -2031,13 +2015,13 @@
       <c r="D68" s="1" t="n">
         <v>22500</v>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="1" t="n">
         <v>0.26</v>
       </c>
-      <c r="F68" s="3" t="n">
+      <c r="F68" s="1" t="n">
         <v>79.16</v>
       </c>
-      <c r="G68" s="3" t="n">
+      <c r="G68" s="1" t="n">
         <v>0.6472</v>
       </c>
     </row>
@@ -2054,13 +2038,13 @@
       <c r="D69" s="1" t="n">
         <v>22500</v>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="1" t="n">
         <v>0.255</v>
       </c>
-      <c r="F69" s="3" t="n">
+      <c r="F69" s="1" t="n">
         <v>79.49</v>
       </c>
-      <c r="G69" s="3" t="n">
+      <c r="G69" s="1" t="n">
         <v>0.6384</v>
       </c>
     </row>
@@ -2077,13 +2061,13 @@
       <c r="D70" s="1" t="n">
         <v>22500</v>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="1" t="n">
         <v>0.245</v>
       </c>
-      <c r="F70" s="3" t="n">
+      <c r="F70" s="1" t="n">
         <v>79.67</v>
       </c>
-      <c r="G70" s="3" t="n">
+      <c r="G70" s="1" t="n">
         <v>0.6496</v>
       </c>
     </row>
@@ -2100,13 +2084,13 @@
       <c r="D71" s="1" t="n">
         <v>22500</v>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="1" t="n">
         <v>0.24</v>
       </c>
-      <c r="F71" s="3" t="n">
+      <c r="F71" s="1" t="n">
         <v>80.17</v>
       </c>
-      <c r="G71" s="3" t="n">
+      <c r="G71" s="1" t="n">
         <v>0.6304</v>
       </c>
     </row>
@@ -2123,13 +2107,13 @@
       <c r="D72" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="E72" s="3" t="n">
+      <c r="E72" s="1" t="n">
         <v>0.4508</v>
       </c>
-      <c r="F72" s="3" t="n">
+      <c r="F72" s="1" t="n">
         <v>252.84</v>
       </c>
-      <c r="G72" s="3" t="n">
+      <c r="G72" s="1" t="n">
         <v>0.931</v>
       </c>
     </row>
@@ -2146,13 +2130,13 @@
       <c r="D73" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="1" t="n">
         <v>0.4552</v>
       </c>
-      <c r="F73" s="3" t="n">
+      <c r="F73" s="1" t="n">
         <v>256.04</v>
       </c>
-      <c r="G73" s="3" t="n">
+      <c r="G73" s="1" t="n">
         <v>0.941</v>
       </c>
     </row>
@@ -2169,13 +2153,13 @@
       <c r="D74" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="F74" s="3" t="n">
+      <c r="F74" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="G74" s="3" t="n">
+      <c r="G74" s="1" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -2192,13 +2176,13 @@
       <c r="D75" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="E75" s="3" t="n">
+      <c r="E75" s="1" t="n">
         <v>0.4644</v>
       </c>
-      <c r="F75" s="3" t="n">
+      <c r="F75" s="1" t="n">
         <v>259.96</v>
       </c>
-      <c r="G75" s="3" t="n">
+      <c r="G75" s="1" t="n">
         <v>0.959</v>
       </c>
     </row>
@@ -2215,13 +2199,13 @@
       <c r="D76" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="E76" s="3" t="n">
+      <c r="E76" s="1" t="n">
         <v>0.4692</v>
       </c>
-      <c r="F76" s="3" t="n">
+      <c r="F76" s="1" t="n">
         <v>263.16</v>
       </c>
-      <c r="G76" s="3" t="n">
+      <c r="G76" s="1" t="n">
         <v>0.969</v>
       </c>
     </row>
@@ -2238,13 +2222,13 @@
       <c r="D77" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="E77" s="3" t="n">
+      <c r="E77" s="1" t="n">
         <v>0.4536</v>
       </c>
-      <c r="F77" s="3" t="n">
+      <c r="F77" s="1" t="n">
         <v>253.68</v>
       </c>
-      <c r="G77" s="3" t="n">
+      <c r="G77" s="1" t="n">
         <v>0.934</v>
       </c>
     </row>
@@ -2261,13 +2245,13 @@
       <c r="D78" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="E78" s="3" t="n">
+      <c r="E78" s="1" t="n">
         <v>0.4572</v>
       </c>
-      <c r="F78" s="3" t="n">
+      <c r="F78" s="1" t="n">
         <v>257.24</v>
       </c>
-      <c r="G78" s="3" t="n">
+      <c r="G78" s="1" t="n">
         <v>0.945</v>
       </c>
     </row>
@@ -2284,13 +2268,13 @@
       <c r="D79" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="E79" s="3" t="n">
+      <c r="E79" s="1" t="n">
         <v>0.4628</v>
       </c>
-      <c r="F79" s="3" t="n">
+      <c r="F79" s="1" t="n">
         <v>260.52</v>
       </c>
-      <c r="G79" s="3" t="n">
+      <c r="G79" s="1" t="n">
         <v>0.955</v>
       </c>
     </row>
@@ -2307,13 +2291,13 @@
       <c r="D80" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="E80" s="3" t="n">
+      <c r="E80" s="1" t="n">
         <v>0.4672</v>
       </c>
-      <c r="F80" s="3" t="n">
+      <c r="F80" s="1" t="n">
         <v>262.48</v>
       </c>
-      <c r="G80" s="3" t="n">
+      <c r="G80" s="1" t="n">
         <v>0.964</v>
       </c>
     </row>
@@ -2330,13 +2314,13 @@
       <c r="D81" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="E81" s="3" t="n">
+      <c r="E81" s="1" t="n">
         <v>0.4516</v>
       </c>
-      <c r="F81" s="3" t="n">
+      <c r="F81" s="1" t="n">
         <v>254.92</v>
       </c>
-      <c r="G81" s="3" t="n">
+      <c r="G81" s="1" t="n">
         <v>0.939</v>
       </c>
     </row>
@@ -2364,192 +2348,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="4" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="22.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="31.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="30.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="31.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="30.25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.003</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <v>0.006</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.006</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>625</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.007</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>1225</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.014</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3" t="n">
         <v>0.26</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.026</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>2500</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.03</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="n">
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3" t="n">
         <v>5625</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.06</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="3" t="n">
         <v>4.6</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="3" t="n">
         <v>14.2</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="3" t="n">
         <v>22500</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="3" t="n">
         <v>78.5</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.64</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="3" t="n">
         <v>40000</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.46</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="3" t="n">
         <v>258</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -3036,674 +3020,674 @@
   </sheetPr>
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X6" activeCellId="0" sqref="X6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="19.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="21.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="4" width="20.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="4" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="4" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="4" width="17.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="4" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="4" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="4" width="21.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="24" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="20.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="20.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="17.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="21.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="24" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G2" s="4" t="n">
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="3" t="n">
         <v>1E-005</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="3" t="n">
         <v>5E-006</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="V2" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W2" s="4" t="n">
+      <c r="V2" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W2" s="3" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>625</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G3" s="4" t="n">
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>725</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="3" t="n">
         <v>0.00014</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="3" t="n">
         <v>1300</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="3" t="n">
         <v>5E-006</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="3" t="n">
         <v>628</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="4" t="n">
+      <c r="Q3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="R3" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="S3" s="3" t="n">
         <v>628</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="3" t="n">
         <v>1300</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W3" s="4" t="n">
+      <c r="V3" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W3" s="3" t="n">
         <v>1213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>1225</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G4" s="4" t="n">
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>1365</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="3" t="n">
         <v>0.00029</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="3" t="n">
         <v>2520</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="3" t="n">
         <v>5E-006</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="3" t="n">
         <v>1228</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="R4" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="S4" s="3" t="n">
         <v>1228</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="T4" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="U4" s="3" t="n">
         <v>2520</v>
       </c>
-      <c r="V4" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W4" s="4" t="n">
+      <c r="V4" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W4" s="3" t="n">
         <v>2432</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>2500</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G5" s="4" t="n">
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>2700</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="3" t="n">
         <v>0.0005</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="3" t="n">
         <v>5100</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="3" t="n">
         <v>5E-006</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="3" t="n">
         <v>2503</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="R5" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="S5" s="3" t="n">
         <v>2503</v>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="T5" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="3" t="n">
         <v>5100</v>
       </c>
-      <c r="V5" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W5" s="4" t="n">
+      <c r="V5" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W5" s="3" t="n">
         <v>4988</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3" t="n">
         <v>5625</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G6" s="4" t="n">
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>5925</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="3" t="n">
         <v>0.0011</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="3" t="n">
         <v>11400</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="3" t="n">
         <v>5E-006</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="3" t="n">
         <v>5628</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="R6" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="S6" s="3" t="n">
         <v>5628</v>
       </c>
-      <c r="T6" s="4" t="n">
+      <c r="T6" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="U6" s="3" t="n">
         <v>11400</v>
       </c>
-      <c r="V6" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W6" s="4" t="n">
+      <c r="V6" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W6" s="3" t="n">
         <v>11222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G7" s="4" t="n">
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G7" s="3" t="n">
         <v>10400</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="3" t="n">
         <v>0.002</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="3" t="n">
         <v>20200</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="3" t="n">
         <v>5E-006</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="3" t="n">
         <v>10003</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="3" t="n">
         <v>10003</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="3" t="n">
         <v>20200</v>
       </c>
-      <c r="V7" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W7" s="4" t="n">
+      <c r="V7" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W7" s="3" t="n">
         <v>19968</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3" t="n">
         <v>22500</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G8" s="4" t="n">
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G8" s="3" t="n">
         <v>23100</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="3" t="n">
         <v>0.004</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="3" t="n">
         <v>45300</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="3" t="n">
         <v>5E-006</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="3" t="n">
         <v>22503</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="S8" s="4" t="n">
+      <c r="S8" s="3" t="n">
         <v>22503</v>
       </c>
-      <c r="T8" s="4" t="n">
+      <c r="T8" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U8" s="4" t="n">
+      <c r="U8" s="3" t="n">
         <v>45300</v>
       </c>
-      <c r="V8" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W8" s="4" t="n">
+      <c r="V8" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W8" s="3" t="n">
         <v>44938</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>40000</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G9" s="4" t="n">
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <v>40800</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="3" t="n">
         <v>80400</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="3" t="n">
         <v>5E-006</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="3" t="n">
         <v>40003</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="O9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="3" t="n">
         <v>40003</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="U9" s="3" t="n">
         <v>80400</v>
       </c>
-      <c r="V9" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="W9" s="4" t="n">
+      <c r="V9" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="W9" s="3" t="n">
         <v>79920</v>
       </c>
     </row>
@@ -3731,668 +3715,668 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="19.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="21.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="4" width="20.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="4" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="4" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="4" width="17.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="4" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="4" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="4" width="21.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="24" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="20.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="20.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="17.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="21.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="24" style="3" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="n">
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>5E-006</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="3" t="n">
         <v>5E-005</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M2" s="4" t="n">
+      <c r="L2" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M2" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S2" s="4" t="n">
+      <c r="R2" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S2" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="3" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>625</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="D3" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>7E-005</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="3" t="n">
         <v>725</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="3" t="n">
         <v>1300</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M3" s="3" t="n">
         <v>628</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="4" t="n">
+      <c r="Q3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S3" s="4" t="n">
+      <c r="R3" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S3" s="3" t="n">
         <v>628</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="3" t="n">
         <v>1300</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="3" t="n">
         <v>1.6E-005</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="3" t="n">
         <v>1203</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>1225</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="n">
+      <c r="D4" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>0.00013</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="3" t="n">
         <v>1365</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="3" t="n">
         <v>0.034</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="3" t="n">
         <v>2520</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M4" s="4" t="n">
+      <c r="L4" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M4" s="3" t="n">
         <v>1228</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S4" s="4" t="n">
+      <c r="R4" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S4" s="3" t="n">
         <v>1228</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="T4" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="U4" s="3" t="n">
         <v>2470</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="V4" s="3" t="n">
         <v>3.1E-005</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="3" t="n">
         <v>2423</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>2500</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="n">
+      <c r="D5" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>0.0003</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="3" t="n">
         <v>2700</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="3" t="n">
         <v>0.14</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="3" t="n">
         <v>5100</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M5" s="4" t="n">
+      <c r="L5" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M5" s="3" t="n">
         <v>2503</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S5" s="4" t="n">
+      <c r="R5" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S5" s="3" t="n">
         <v>2503</v>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="T5" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="3" t="n">
         <v>5100</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="3" t="n">
         <v>6.5E-005</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="3" t="n">
         <v>4962</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3" t="n">
         <v>5625</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="n">
+      <c r="D6" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>0.0006</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="3" t="n">
         <v>5925</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="3" t="n">
         <v>11400</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M6" s="4" t="n">
+      <c r="L6" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M6" s="3" t="n">
         <v>5628</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S6" s="4" t="n">
+      <c r="R6" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S6" s="3" t="n">
         <v>5628</v>
       </c>
-      <c r="T6" s="4" t="n">
+      <c r="T6" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="U6" s="3" t="n">
         <v>11400</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="V6" s="3" t="n">
         <v>0.00014</v>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="W6" s="3" t="n">
         <v>11226</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="n">
+      <c r="D7" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>0.001</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="3" t="n">
         <v>10400</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="3" t="n">
         <v>2.2</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="3" t="n">
         <v>20200</v>
       </c>
-      <c r="L7" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M7" s="3" t="n">
         <v>10003</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S7" s="4" t="n">
+      <c r="R7" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S7" s="3" t="n">
         <v>10003</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="3" t="n">
         <v>20200</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="3" t="n">
         <v>0.0003</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="3" t="n">
         <v>19975</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3" t="n">
         <v>22500</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="n">
+      <c r="D8" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>0.0023</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="3" t="n">
         <v>23100</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="3" t="n">
         <v>10.4</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="3" t="n">
         <v>45300</v>
       </c>
-      <c r="L8" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M8" s="4" t="n">
+      <c r="L8" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M8" s="3" t="n">
         <v>22503</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S8" s="4" t="n">
+      <c r="R8" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S8" s="3" t="n">
         <v>22503</v>
       </c>
-      <c r="T8" s="4" t="n">
+      <c r="T8" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U8" s="4" t="n">
+      <c r="U8" s="3" t="n">
         <v>45300</v>
       </c>
-      <c r="V8" s="4" t="n">
+      <c r="V8" s="3" t="n">
         <v>0.0005</v>
       </c>
-      <c r="W8" s="4" t="n">
+      <c r="W8" s="3" t="n">
         <v>44972</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>40000</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="n">
+      <c r="D9" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>0.004</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="3" t="n">
         <v>40800</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="3" t="n">
         <v>32.1</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="3" t="n">
         <v>2E-006</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="3" t="n">
         <v>80400</v>
       </c>
-      <c r="L9" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M9" s="4" t="n">
+      <c r="L9" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M9" s="3" t="n">
         <v>40003</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="O9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="4" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S9" s="4" t="n">
+      <c r="R9" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="S9" s="3" t="n">
         <v>40003</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="3" t="n">
         <v>3E-006</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="U9" s="3" t="n">
         <v>80400</v>
       </c>
-      <c r="V9" s="4" t="n">
+      <c r="V9" s="3" t="n">
         <v>0.0009</v>
       </c>
-      <c r="W9" s="4" t="n">
+      <c r="W9" s="3" t="n">
         <v>79975</v>
       </c>
     </row>
@@ -4420,191 +4404,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="7" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="28.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <v>0.0021</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.0013</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3" t="n">
         <v>0.007</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.0025</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.003</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.006</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="3" t="n">
         <v>0.07</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.012</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="3" t="n">
         <v>0.26</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.023</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="3" t="n">
         <v>1.1</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="3" t="n">
         <v>4000</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.046</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.096</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="3" t="n">
         <v>16.6</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4632,191 +4616,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="7" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="28.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.0006</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <v>0.0015</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.0014</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.0014</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3" t="n">
         <v>0.006</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.003</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.003</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3" t="n">
         <v>0.019</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.006</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.006</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="3" t="n">
         <v>0.07</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="3" t="n">
         <v>0.27</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.022</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.024</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="3" t="n">
         <v>1.06</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.043</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="3" t="n">
         <v>4000</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="3" t="n">
         <v>4.1</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.087</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.09</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="3" t="n">
         <v>16.6</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/dataGen/empiricalData.xlsx
+++ b/dataGen/empiricalData.xlsx
@@ -3021,7 +3021,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+      <selection pane="topLeft" activeCell="P15" activeCellId="0" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dataGen/empiricalData.xlsx
+++ b/dataGen/empiricalData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="totalRuntimes" sheetId="1" state="visible" r:id="rId3"/>
@@ -3020,7 +3020,7 @@
   </sheetPr>
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P15" activeCellId="0" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -4399,7 +4399,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4523,7 +4523,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0.26</v>
@@ -4563,7 +4563,7 @@
         <v>4000</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>4.2</v>
@@ -4583,7 +4583,7 @@
         <v>8000</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.096</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>16.6</v>
@@ -4610,8 +4610,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
